--- a/samplesheet_path_creator.xlsx
+++ b/samplesheet_path_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b55366005fcedbd/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C6A924-AEDB-47D2-8C14-C168752C7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B4C6A924-AEDB-47D2-8C14-C168752C7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2A23CB-E7B8-4FFA-BCAC-B84405C7666E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FB16A02-4D15-4857-B9DA-DAB9F6BA1818}"/>
   </bookViews>
@@ -38,54 +38,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
-    <t>Your Path to your folder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz </t>
-  </si>
-  <si>
     <t xml:space="preserve"> NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R1.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R2.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R1.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R2.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R1.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R2.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R1.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz  </t>
-  </si>
-  <si>
     <t>NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R2.fastq.gz</t>
   </si>
   <si>
@@ -102,6 +75,33 @@
   </si>
   <si>
     <t>/home/awauc13/Uvy-s-Demo/Sequences_demo/</t>
+  </si>
+  <si>
+    <t>Your Path to your Sequence_demo folder</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -482,13 +482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E19EF5-4AA5-43EB-954F-4C4D29B5BEA6}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="111.90625" bestFit="1" customWidth="1"/>
@@ -498,68 +498,68 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,D2)</f>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E9" si="0">_xlfn.CONCAT(B3,C3)</f>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F9" si="1">_xlfn.CONCAT(B3,D3)</f>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -572,13 +572,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -591,51 +591,51 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz  </v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -648,13 +648,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -667,5 +667,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/samplesheet_path_creator.xlsx
+++ b/samplesheet_path_creator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b55366005fcedbd/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B4C6A924-AEDB-47D2-8C14-C168752C7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2A23CB-E7B8-4FFA-BCAC-B84405C7666E}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{B4C6A924-AEDB-47D2-8C14-C168752C7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{273363AB-CD07-4EAE-937C-6E85F2074E41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2FB16A02-4D15-4857-B9DA-DAB9F6BA1818}"/>
   </bookViews>
@@ -38,30 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
-    <t xml:space="preserve"> NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R2.fastq.gz</t>
-  </si>
-  <si>
     <t>forward read file</t>
   </si>
   <si>
@@ -80,28 +56,52 @@
     <t>Your Path to your Sequence_demo folder</t>
   </si>
   <si>
-    <t>NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</t>
-  </si>
-  <si>
-    <t>NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</t>
+    <t>/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R1.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>/NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E19EF5-4AA5-43EB-954F-4C4D29B5BEA6}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -498,171 +498,171 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,C2)</f>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R1.fastq.gz</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>_xlfn.CONCAT(B2,D2)</f>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_001_i7---FLD_ill_0288_i5.MGLA_FS_01-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E9" si="0">_xlfn.CONCAT(B3,C3)</f>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R1.fastq.gz</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F9" si="1">_xlfn.CONCAT(B3,D3)</f>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_017_i7---FLD_ill_0272_i5.MGLA_FS_03-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R1.fastq.gz</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_065_i7---FLD_ill_0224_i5.MGLA_FS_09-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R1.fastq.gz</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_073_i7---FLD_ill_0216_i5.MGLA_FS_10-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R1.fastq.gz</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_034_i7---FLD_ill_0255_i5.MGLA_FS_17-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R1.fastq.gz</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_042_i7---FLD_ill_0247_i5.MGLA_FS_18-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/ NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R1.fastq.gz</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_064_i7---FLD_ill_0225_i5.MGLA_FS_92-515b_R2.fastq.gz</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R1.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R1.fastq.gz</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo/NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R2.fastq.gz</v>
+        <v>/home/awauc13/Uvy-s-Demo/Sequences_demo//NX.VH01519_168.001.FLD_ill_096_i7---FLD_ill_0193_i5.MGLA_FS_96-515b_R2.fastq.gz</v>
       </c>
     </row>
   </sheetData>
